--- a/src/main/resources/templates/studentInfo.xlsx
+++ b/src/main/resources/templates/studentInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angel/Documents/otherProject/angel/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC39F29A-E2E9-1F4F-A507-D51ADCC420A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0DA73C-BE21-FD44-B3BA-F5C76FB198D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{70B1A089-96AF-524E-8434-CC82D5C61661}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{70B1A089-96AF-524E-8434-CC82D5C61661}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -141,26 +141,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新生註記</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>離校註記</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新進日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>離校日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今年年級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>講義減免</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,6 +230,18 @@
   </si>
   <si>
     <t>學生資料總表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入校註記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入校日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年級</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -287,6 +287,25 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -310,12 +329,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,7 +659,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -649,9 +674,9 @@
     <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -668,98 +693,98 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="20">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="N2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/studentInfo.xlsx
+++ b/src/main/resources/templates/studentInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angel/Documents/otherProject/angel/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0DA73C-BE21-FD44-B3BA-F5C76FB198D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCE2592-4D7C-3341-A142-EE59A3FD5B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{70B1A089-96AF-524E-8434-CC82D5C61661}"/>
   </bookViews>
@@ -59,7 +59,25 @@
             <rFont val="Microsoft JhengHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>jx:area(lastCell="O4")</t>
+          <t>jx:area(lastCell="</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft JhengHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>N</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft JhengHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>4")</t>
         </r>
       </text>
     </comment>
@@ -92,25 +110,25 @@
             <rFont val="Microsoft JhengHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>jx:each(items="studentInfoList" var="student" lastCell="O</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>")</t>
+          <t>jx:each(items="studentInfoList" var="student" lastCell="</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft JhengHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>N</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft JhengHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>3")</t>
         </r>
       </text>
     </comment>
@@ -119,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${student.newNote}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${student.leaveNote}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,10 +244,6 @@
   </si>
   <si>
     <t>學生資料總表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入校註記</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -333,14 +343,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51255F53-6625-0248-9F41-65815C4AC9D1}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -669,78 +679,74 @@
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" customWidth="1"/>
-    <col min="14" max="14" width="21.5" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="20">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -782,14 +788,11 @@
       </c>
       <c r="N3" t="s">
         <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/templates/studentInfo.xlsx
+++ b/src/main/resources/templates/studentInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angel/Documents/otherProject/angel/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCE2592-4D7C-3341-A142-EE59A3FD5B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448BC244-4438-734D-A1CE-2A159B2DE951}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{70B1A089-96AF-524E-8434-CC82D5C61661}"/>
   </bookViews>
@@ -59,25 +59,7 @@
             <rFont val="Microsoft JhengHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>jx:area(lastCell="</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>N</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>4")</t>
+          <t>jx:area(lastCell="N4")</t>
         </r>
       </text>
     </comment>
@@ -666,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51255F53-6625-0248-9F41-65815C4AC9D1}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -679,12 +661,13 @@
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="13" max="13" width="21.5" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="21.5" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -701,8 +684,9 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="20">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="20">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -722,10 +706,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>6</v>
@@ -746,7 +730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -766,10 +750,10 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
@@ -792,7 +776,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
